--- a/data/elm_autumn_2021/staff_requirements.xlsx
+++ b/data/elm_autumn_2021/staff_requirements.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1891,6 +1891,330 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jasmine Matchawate</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Noah Williams</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/elm_autumn_2021/staff_requirements.xlsx
+++ b/data/elm_autumn_2021/staff_requirements.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,6 +594,11 @@
           <t>12/11/21</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>11/11/21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -756,6 +761,11 @@
           <t>-1</t>
         </is>
       </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -918,6 +928,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1080,6 +1095,11 @@
           <t>-1</t>
         </is>
       </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1242,6 +1262,11 @@
           <t>-2</t>
         </is>
       </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1404,6 +1429,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1566,6 +1596,11 @@
           <t>-2</t>
         </is>
       </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1728,6 +1763,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1890,6 +1930,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2052,6 +2097,11 @@
           <t>-1</t>
         </is>
       </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2210,6 +2260,11 @@
         </is>
       </c>
       <c r="AF11" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>-1</t>
         </is>
